--- a/admin/report/软件部2016-08-01至2016-08-31.xlsx
+++ b/admin/report/软件部2016-08-01至2016-08-31.xlsx
@@ -484,7 +484,7 @@
         <v>2016-08-11</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -681,7 +681,7 @@
         <v>曹琦敏</v>
       </c>
       <c r="C39">
-        <v>201.5</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="40">
@@ -803,34 +803,34 @@
     </row>
     <row r="55">
       <c r="B55" t="str">
-        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
       </c>
       <c r="C56">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="str">
-        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="str">
-        <v>SCW-Y-YF-1607-01日报周报系统</v>
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
       </c>
       <c r="C58">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -859,18 +859,18 @@
     </row>
     <row r="62">
       <c r="B62" t="str">
-        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
       </c>
       <c r="C62">
-        <v>62.5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="str">
-        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
       </c>
       <c r="C63">
-        <v>217</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="64">
@@ -896,50 +896,50 @@
     </row>
     <row r="67">
       <c r="B67" t="str">
-        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
       </c>
       <c r="C67">
-        <v>29.5</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="str">
-        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="str">
-        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
       </c>
       <c r="C69">
-        <v>200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="str">
-        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="str">
-        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
       </c>
       <c r="C71">
-        <v>520</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="str">
-        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -968,74 +968,74 @@
     </row>
     <row r="76">
       <c r="B76" t="str">
-        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="str">
-        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="str">
-        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
       </c>
       <c r="C78">
-        <v>158.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="str">
-        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="str">
-        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
+        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="str">
-        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C81">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="str">
-        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
       </c>
       <c r="C82">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="str">
-        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
       </c>
       <c r="C83">
-        <v>87.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="str">
-        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="85">
@@ -1064,18 +1064,18 @@
     </row>
     <row r="88">
       <c r="B88" t="str">
-        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
       </c>
       <c r="C88">
-        <v>44.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="str">
-        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="90">
@@ -1110,7 +1110,7 @@
         <v>1094.5</v>
       </c>
       <c r="D93" t="str">
-        <v>30.82%</v>
+        <v>30.79%</v>
       </c>
     </row>
     <row r="94">
@@ -1121,7 +1121,7 @@
         <v>2109.5</v>
       </c>
       <c r="D94" t="str">
-        <v>59.41%</v>
+        <v>59.34%</v>
       </c>
     </row>
     <row r="95">
@@ -1129,10 +1129,10 @@
         <v>其它</v>
       </c>
       <c r="C95">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D95" t="str">
-        <v>9.77%</v>
+        <v>9.87%</v>
       </c>
     </row>
   </sheetData>
